--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2648223.625079358</v>
+        <v>2763657.715820811</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797265.295567479</v>
+        <v>8797265.295567481</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>152.0747039460367</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.47711506061737</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>90.88875723934488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>111.0567566117646</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8837547751694</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8837547751694</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>89.5823348079231</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804603</v>
+        <v>23.94240680425935</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>48.99854504421675</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>188.8837547751694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937522</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505418</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>109.1060703679821</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>188.8837547751694</v>
+        <v>136.4184565325859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>53.45534151883085</v>
+        <v>217.6126620764379</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>165.2718979771866</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>390.7750449795686</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>101.5912139116271</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>246.4412936084449</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>213.5398874823017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>87.71169339385418</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>146.2378916327286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.34762173749108</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>139.6152205166461</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2290,19 +2292,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.0719539884621</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>280.3460310779739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>12.35680705404248</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>148.0536352423275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881293</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>97.98413062224057</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>140.1760114441845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>133.589368600955</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.3168020713735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>69.8286381302742</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.78734729249771</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,13 +3325,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174123</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>56.49518623012958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488149</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.453391420151097</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.93832930943235</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.759319468713</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.05846343488193</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,22 +4188,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>70.38407275859089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>74.41917683133136</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764008</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764008</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764008</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>168.6128590400094</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>701.1355657757676</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>540.7559564928857</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>540.7559564928857</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U2" t="n">
-        <v>540.7559564928857</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V2" t="n">
-        <v>540.7559564928857</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W2" t="n">
-        <v>351.3361714764008</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764008</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764008</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158255</v>
+        <v>581.8870116452129</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158255</v>
+        <v>581.8870116452129</v>
       </c>
       <c r="D3" t="n">
-        <v>181.8429936158255</v>
+        <v>432.9526019839616</v>
       </c>
       <c r="E3" t="n">
-        <v>181.8429936158255</v>
+        <v>273.7151469785061</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153776</v>
+        <v>127.1805890053911</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>30.5366136729605</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487953</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487953</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323104</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158255</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.1812502388439</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="C5" t="n">
-        <v>487.1812502388439</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="D5" t="n">
-        <v>296.3895787487737</v>
+        <v>1155.051547851602</v>
       </c>
       <c r="E5" t="n">
-        <v>296.3895787487737</v>
+        <v>769.263295253358</v>
       </c>
       <c r="F5" t="n">
-        <v>105.5979072587036</v>
+        <v>762.3177945041546</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201355</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201355</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201355</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590436</v>
+        <v>111.6705539017213</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543466</v>
+        <v>277.9807166746967</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186789</v>
+        <v>521.2049416030745</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398397</v>
+        <v>823.5081935709156</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681832</v>
+        <v>1135.316836582749</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875693</v>
+        <v>1416.413635079236</v>
       </c>
       <c r="P5" t="n">
-        <v>739.391360757474</v>
+        <v>1621.822248332754</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006777</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="R5" t="n">
-        <v>677.972921728914</v>
+        <v>1703.718566540648</v>
       </c>
       <c r="S5" t="n">
-        <v>677.972921728914</v>
+        <v>1562.810726300996</v>
       </c>
       <c r="T5" t="n">
-        <v>677.972921728914</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="U5" t="n">
-        <v>677.972921728914</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="V5" t="n">
-        <v>677.972921728914</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="W5" t="n">
-        <v>677.972921728914</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="X5" t="n">
-        <v>677.972921728914</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="Y5" t="n">
-        <v>487.1812502388439</v>
+        <v>1513.317246458353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301.5817510441701</v>
+        <v>461.7777146840859</v>
       </c>
       <c r="C6" t="n">
-        <v>301.5817510441701</v>
+        <v>461.7777146840859</v>
       </c>
       <c r="D6" t="n">
-        <v>152.6473413829189</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="E6" t="n">
-        <v>152.6473413829189</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="F6" t="n">
-        <v>152.6473413829189</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="G6" t="n">
-        <v>15.11070038201355</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>15.11070038201355</v>
+        <v>78.31649151814671</v>
       </c>
       <c r="I6" t="n">
-        <v>15.11070038201355</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201355</v>
+        <v>61.66788464787503</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340842</v>
+        <v>186.1577239806057</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208076</v>
+        <v>399.8722171189969</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914172</v>
+        <v>668.6238185223486</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548601</v>
+        <v>958.897120035246</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747547</v>
+        <v>1202.220686228316</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165423</v>
+        <v>1378.176233639505</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994159</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994159</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="S6" t="n">
-        <v>602.5815744210909</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="T6" t="n">
-        <v>492.3734225342403</v>
+        <v>1250.338042626301</v>
       </c>
       <c r="U6" t="n">
-        <v>492.3734225342403</v>
+        <v>1250.338042626301</v>
       </c>
       <c r="V6" t="n">
-        <v>492.3734225342403</v>
+        <v>1015.185934394558</v>
       </c>
       <c r="W6" t="n">
-        <v>301.5817510441701</v>
+        <v>877.3895136545727</v>
       </c>
       <c r="X6" t="n">
-        <v>301.5817510441701</v>
+        <v>669.5380134490399</v>
       </c>
       <c r="Y6" t="n">
-        <v>301.5817510441701</v>
+        <v>461.7777146840859</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="C7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="D7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="E7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201355</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201355</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201355</v>
+        <v>64.24066662574661</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426234</v>
+        <v>132.129986158411</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747814</v>
+        <v>206.9680378347964</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208627959</v>
+        <v>287.8841338195356</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484547906</v>
+        <v>342.3101561934704</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484547906</v>
+        <v>369.819049585799</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484547906</v>
+        <v>369.819049585799</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484547906</v>
+        <v>369.819049585799</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484547906</v>
+        <v>369.819049585799</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484547906</v>
+        <v>369.819049585799</v>
       </c>
       <c r="U7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="V7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="W7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="X7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.11070038201355</v>
+        <v>150.0082798116192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875904</v>
+        <v>1098.02844422685</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.069587875904</v>
+        <v>931.087133138783</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.803889269154</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>1169.803889269154</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>758.8179844795461</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>1484.628284290972</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1069.844339292102</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>861.9928390865696</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>654.2325403216157</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379416</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="W10" t="n">
-        <v>87.68248070098099</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="X10" t="n">
-        <v>87.68248070098099</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y10" t="n">
-        <v>87.68248070098099</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P12" t="n">
-        <v>2311.700279152293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032295</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769994</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334693</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8230468926974</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
         <v>620.8230468926974</v>
@@ -5422,64 +5424,64 @@
         <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.670811801445</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.253641764485</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.264090866467</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y16" t="n">
-        <v>802.4715117229372</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2877.307316025035</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3474.685803651586</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>4102.283767206193</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4654.193497445481</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.071297269541</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2330.071297269541</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084667</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300426</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>3241.424143276705</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>3869.022106831312</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4420.931837070599</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153953</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W22" t="n">
-        <v>3394.393625297483</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X22" t="n">
-        <v>3394.393625297483</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153953</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.507496087131</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.571313159224</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159224</v>
+        <v>2894.254198870726</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>2746.341105288333</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>2599.451157790422</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>2432.255058505302</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.706796165638</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W25" t="n">
-        <v>3493.289626128678</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X25" t="n">
-        <v>3265.300075230661</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y25" t="n">
-        <v>3044.507496087131</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6214,52 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122955</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3825.054730371254</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.065179473236</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329706</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2878.328163333973</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>3475.706650960525</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711127</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950414</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445482</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3260.450525729773</v>
+        <v>3033.629298638937</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801866</v>
+        <v>2864.69311571103</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.397703389531</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807138</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309227</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650996</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.712221995194</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>4080.027733789308</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W31" t="n">
-        <v>3790.610563752347</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X31" t="n">
-        <v>3562.62101285433</v>
+        <v>3436.070342612707</v>
       </c>
       <c r="Y31" t="n">
-        <v>3442.098990560013</v>
+        <v>3215.277763469177</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>3189.272672481339</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>3020.336489553432</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>2870.219850141097</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>2722.306756558703</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>2575.416809060793</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2408.220709775673</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2408.220709775673</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.915258032283</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S34" t="n">
-        <v>2238.060423687188</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T34" t="n">
-        <v>2018.458958710129</v>
+        <v>4471.231687421536</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.383732054326</v>
+        <v>4182.156460765734</v>
       </c>
       <c r="V34" t="n">
-        <v>1474.699243848439</v>
+        <v>3927.471972559847</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.282073811479</v>
+        <v>3638.054802522886</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>3410.065251624869</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>3189.272672481339</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O36" t="n">
         <v>2092.798483612593</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>4369.156388614101</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>4369.156388614101</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>3825.054730371254</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3033.629298638938</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C40" t="n">
-        <v>2864.693115711031</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D40" t="n">
-        <v>2714.576476298695</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E40" t="n">
-        <v>2566.663382716302</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F40" t="n">
-        <v>2419.773435218392</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218392</v>
+        <v>97.30493720974067</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4671.703526833511</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4488.848692488416</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4269.247227511357</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>3980.172000855555</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>3725.487512649668</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>3436.070342612707</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>3436.070342612707</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>3215.277763469177</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7409,28 +7411,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3333.788008320023</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>3164.851825392116</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>3014.73518597978</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>2866.822092397387</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053499</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U43" t="n">
-        <v>4218.903091397697</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>3964.21860319181</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>3964.21860319181</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>3736.229052293793</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>3515.436473150263</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
         <v>542.9134462654469</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583949</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656042</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243707</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661314</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650099</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444212</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>3826.077876455736</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557719</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414189</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.59775584152632</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>93.31459260779042</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>105.8997516910994</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>131.6786642641535</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>146.569253872598</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>33.11252040078202</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.17696725861714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>127.9379057921814</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0840080815005</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>146.3469868924065</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>92.12028678808213</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.26785128072127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.43719818829132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.58789941762395</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>146.3469868924068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.4369174006893</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>8.661728554218286</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>146.3469868924063</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>216.1389255780001</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>144.1654765207634</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
@@ -26338,22 +26340,22 @@
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218516282</v>
+        <v>270592.3620253107</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385762</v>
+        <v>115410.0540231952</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811542906</v>
+        <v>62913.63765881938</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694193</v>
+        <v>27875.25362197563</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.727044446</v>
+        <v>206604.4229263466</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687961</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622556</v>
+        <v>76435.73471936809</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285553</v>
+        <v>-249519.8076285554</v>
       </c>
       <c r="C6" t="n">
-        <v>340625.4544088464</v>
+        <v>123726.9404670086</v>
       </c>
       <c r="D6" t="n">
-        <v>-186337.9089659886</v>
+        <v>302547.3341700692</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.3131061131</v>
+        <v>-52106.43266079576</v>
       </c>
       <c r="F6" t="n">
+        <v>549336.7749134683</v>
+      </c>
+      <c r="G6" t="n">
         <v>549336.7749134682</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>549336.7749134682</v>
+      </c>
+      <c r="I6" t="n">
         <v>549336.7749134683</v>
       </c>
-      <c r="H6" t="n">
-        <v>549336.7749134684</v>
-      </c>
-      <c r="I6" t="n">
-        <v>549336.7749134682</v>
-      </c>
       <c r="J6" t="n">
-        <v>500271.8301849235</v>
+        <v>500271.8301849234</v>
       </c>
       <c r="K6" t="n">
-        <v>548987.2260323138</v>
+        <v>486423.1372546486</v>
       </c>
       <c r="L6" t="n">
-        <v>386721.327544049</v>
+        <v>521461.5212914923</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779564</v>
+        <v>392190.3943618705</v>
       </c>
       <c r="N6" t="n">
         <v>549336.7749134684</v>
@@ -26561,7 +26563,7 @@
         <v>549336.7749134682</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.7749134683</v>
+        <v>549336.7749134684</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373973</v>
+        <v>758.8996292950605</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751694</v>
+        <v>431.9757039594699</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724492513</v>
+        <v>210.4296883821556</v>
       </c>
       <c r="D3" t="n">
-        <v>540.137609955901</v>
+        <v>94.81103524262437</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608849385</v>
+        <v>244.4501167931497</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271233</v>
+        <v>110.1392527666943</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>1.35816760884936</v>
+        <v>244.4501167931498</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271233</v>
+        <v>110.1392527666944</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608849385</v>
+        <v>244.4501167931497</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271233</v>
+        <v>110.1392527666943</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>164.8191221601856</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.60460395604635</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>54.180455154039</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>25.10703275401076</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27515,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310523</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715744</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098432</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.36870709766</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7992868455135</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.992290966542</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>323.51079832274</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380511</v>
+        <v>92.85788772760057</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750908</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>160.7421964707121</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.3541838808842</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,13 +27712,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619274</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515558</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.2767589916715</v>
+        <v>44.33060630074809</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>86.29339111650208</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8636029643752</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>62.81122838575018</v>
+        <v>115.2765266283338</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6438173562991</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157582</v>
+        <v>30.24193919304062</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355284</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882089</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319885</v>
+        <v>36.9111576058917</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510618</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279249</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>232.8096249762859</v>
+        <v>68.63172141487641</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>200.0009937938209</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>20.14668067388487</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27947,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,10 +27991,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>150.1037692492925</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.8733195558277</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5.696349715383093</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31057,28 +31059,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31126,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,7 +31217,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31227,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471947</v>
+        <v>3.050852781085668</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247334</v>
+        <v>31.24454604429361</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235483</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265761</v>
+        <v>258.9373162286699</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212737</v>
+        <v>388.0799144520264</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025571</v>
+        <v>481.447450251177</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749101</v>
+        <v>535.7030533968092</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322911</v>
+        <v>544.3712888610689</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341981</v>
+        <v>514.0343715191483</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925469</v>
+        <v>438.7164434860958</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736452</v>
+        <v>329.4577782634652</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160861</v>
+        <v>191.6431310098728</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115455</v>
+        <v>69.52130774898974</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025954</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577557</v>
+        <v>0.2440682224868534</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314402</v>
+        <v>1.632350146030885</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682594</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380726</v>
+        <v>56.20152915062478</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115111</v>
+        <v>154.2212916475934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.906249056576</v>
+        <v>263.5887514316627</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509845</v>
+        <v>354.4276051721885</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973815</v>
+        <v>413.600297965808</v>
       </c>
       <c r="N6" t="n">
-        <v>307.481589016104</v>
+        <v>424.547067146866</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453481</v>
+        <v>388.3776244374448</v>
       </c>
       <c r="P6" t="n">
-        <v>225.756478567651</v>
+        <v>311.7072835872486</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010454</v>
+        <v>208.3680642547495</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229245</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>21.959637253296</v>
+        <v>30.32018801947716</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337433</v>
+        <v>6.579516597378872</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963173</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264541</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989752</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095919</v>
+        <v>41.15475366734526</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782029</v>
+        <v>96.75348224635549</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269825</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521967</v>
+        <v>203.4597465162528</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124695</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852347</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742665</v>
+        <v>193.4323186275345</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203267</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624699</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610764</v>
+        <v>61.53307486054702</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904738</v>
+        <v>23.84935392391197</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976666</v>
+        <v>5.847259438830792</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417028</v>
+        <v>0.07464586517656341</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q12" t="n">
-        <v>346.7710205055862</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>287.9685048518522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>300.5543663814914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,7 +32560,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>173.3851399586634</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>272.9327299394437</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>469.5567819573404</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,22 +33970,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,16 +34210,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>451.7125911569009</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>516.6542155585828</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34448,10 +34450,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>592.1874941409601</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34787,16 +34789,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.49150559988982</v>
+        <v>77.89141170198366</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629317</v>
+        <v>167.9900634070459</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325699</v>
+        <v>245.6810352811898</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476374</v>
+        <v>305.3568201695365</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357002</v>
+        <v>314.958225264478</v>
       </c>
       <c r="O5" t="n">
-        <v>142.1952693125114</v>
+        <v>283.9361600974615</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727733</v>
+        <v>207.4834477308262</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919569</v>
+        <v>107.1520883890157</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092671</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221704</v>
+        <v>125.7473124573037</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711103</v>
+        <v>215.8732253923143</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753632</v>
+        <v>271.4662640437896</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327707</v>
+        <v>293.2053550635327</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009036</v>
+        <v>245.7813799930004</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332077</v>
+        <v>177.7328761729183</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.9304532150239</v>
+        <v>68.38629016872795</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554447</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095837</v>
+        <v>68.57507023501452</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486444</v>
+        <v>75.5939915923085</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000148</v>
+        <v>81.73343028761536</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322423704</v>
+        <v>54.97578017569171</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235205</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.7892464195647</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>161.9999866016172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>27.1347508453151</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,7 +36208,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>31.25110603664509</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>130.3364854949992</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>327.4227480353221</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,22 +37788,22 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902949</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193517</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683812</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>313.1582113770267</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37876,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38026,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6331143610859</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2759352.592823741</v>
+        <v>2761113.123126526</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>96.86671316392876</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.11693918766142</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>55.91281647716826</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>43.18156339663391</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.13048192555557</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760039</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425904</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>200.3787081238281</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54.9876934271456</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>196.350676511508</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>40.05337266685228</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.811433473812595</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>138.5835265827572</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.92154500530268</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>20.27697994470837</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>221.4087062169173</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>156.2886548806418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.52615597052887</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.7366421803699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>215.3025979624047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="H31" t="n">
-        <v>57.24347904696276</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832529</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="C2" t="n">
         <v>35.17768229832529</v>
@@ -4318,64 +4318,64 @@
         <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>28.23218154912183</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="U2" t="n">
-        <v>482.822241409741</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312951</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148102</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832529</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268596</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.361962382226</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="C3" t="n">
-        <v>176.361962382226</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198765</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198765</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033916</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9797031869067</v>
+        <v>504.2049712476157</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9797031869067</v>
+        <v>504.2049712476157</v>
       </c>
       <c r="X3" t="n">
-        <v>176.361962382226</v>
+        <v>504.2049712476157</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.361962382226</v>
+        <v>504.2049712476157</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.109874628795</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="C5" t="n">
-        <v>978.109874628795</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="D5" t="n">
-        <v>978.109874628795</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>53.87919821146563</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>46.93369746226217</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709184</v>
+        <v>823.5081935709194</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301002</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726301002</v>
+        <v>1501.315831062042</v>
       </c>
       <c r="U5" t="n">
-        <v>1309.172761972366</v>
+        <v>1501.315831062042</v>
       </c>
       <c r="V5" t="n">
-        <v>978.109874628795</v>
+        <v>1170.252943718471</v>
       </c>
       <c r="W5" t="n">
-        <v>978.109874628795</v>
+        <v>817.4842884483572</v>
       </c>
       <c r="X5" t="n">
-        <v>978.109874628795</v>
+        <v>444.0185301872773</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.109874628795</v>
+        <v>53.87919821146563</v>
       </c>
     </row>
     <row r="6">
@@ -4631,58 +4631,58 @@
         <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H6" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478754</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806065</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189982</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223506</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352487</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902146</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1247.544644228261</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1247.544644228261</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="W6" t="n">
         <v>1247.544644228261</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="C7" t="n">
-        <v>329.3610973970611</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970611</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146681</v>
+        <v>211.9954171409715</v>
       </c>
       <c r="F7" t="n">
-        <v>34.5580563167577</v>
+        <v>65.1054696430612</v>
       </c>
       <c r="G7" t="n">
-        <v>34.5580563167577</v>
+        <v>65.1054696430612</v>
       </c>
       <c r="H7" t="n">
-        <v>34.5580563167577</v>
+        <v>65.1054696430612</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5580563167577</v>
+        <v>65.1054696430612</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574697</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584117</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347974</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195369</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193472</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858008</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858008</v>
+        <v>359.9085107233647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448.6592893851681</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="C8" t="n">
-        <v>448.6592893851681</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="D8" t="n">
-        <v>448.6592893851681</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="E8" t="n">
-        <v>448.6592893851681</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>55.35983779428177</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1896.341811458183</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>1896.341811458183</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113637</v>
+        <v>1565.278924114613</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435233</v>
+        <v>1212.510268844499</v>
       </c>
       <c r="X8" t="n">
-        <v>515.2467085824435</v>
+        <v>839.0445105834187</v>
       </c>
       <c r="Y8" t="n">
-        <v>448.6592893851681</v>
+        <v>448.905178607607</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
         <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
         <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
         <v>1510.593141177798</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.6265632319841</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="C10" t="n">
-        <v>506.6265632319841</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D10" t="n">
-        <v>356.5099238196483</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470406002</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168596</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.8386896933887</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362698</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.983708831312</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6135,16 +6135,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6375,13 +6375,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>613.6374994204285</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>465.7244058380354</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>318.834458340125</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G31" t="n">
-        <v>151.638359055005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6885,7 +6885,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.84801117172486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>70.8818764268394</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="H31" t="n">
-        <v>83.05123379926113</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253124</v>
+        <v>270592.3620253128</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231927</v>
+        <v>115410.0540231929</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742644</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854483</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881975</v>
+        <v>62913.63765881972</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197484</v>
+        <v>27875.25362197487</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687957</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687959</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687972</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285555</v>
+        <v>-249519.8076285554</v>
       </c>
       <c r="C6" t="n">
-        <v>123726.940467007</v>
+        <v>123726.9404670068</v>
       </c>
       <c r="D6" t="n">
-        <v>302547.3341700713</v>
+        <v>302547.3341700716</v>
       </c>
       <c r="E6" t="n">
-        <v>-52453.81191515367</v>
+        <v>-52141.17058623192</v>
       </c>
       <c r="F6" t="n">
-        <v>548989.3956591114</v>
+        <v>549302.0369880323</v>
       </c>
       <c r="G6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880326</v>
       </c>
       <c r="H6" t="n">
-        <v>548989.3956591114</v>
+        <v>549302.0369880323</v>
       </c>
       <c r="I6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="J6" t="n">
-        <v>499924.4509305665</v>
+        <v>500237.0922594878</v>
       </c>
       <c r="K6" t="n">
-        <v>486075.7580002914</v>
+        <v>486388.3993292128</v>
       </c>
       <c r="L6" t="n">
-        <v>521114.1420371361</v>
+        <v>521426.7833660576</v>
       </c>
       <c r="M6" t="n">
-        <v>391843.015107513</v>
+        <v>392155.6564364345</v>
       </c>
       <c r="N6" t="n">
-        <v>548989.3956591113</v>
+        <v>549302.0369880322</v>
       </c>
       <c r="O6" t="n">
-        <v>548989.3956591109</v>
+        <v>549302.0369880324</v>
       </c>
       <c r="P6" t="n">
-        <v>548989.3956591111</v>
+        <v>549302.0369880325</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950618</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382157</v>
+        <v>210.4296883821573</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262232</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
+        <v>244.4501167931516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.1392527666921</v>
+      </c>
+      <c r="E4" t="n">
+        <v>630.5933313734845</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>187.5255871663207</v>
+      </c>
+      <c r="K4" t="n">
         <v>244.4501167931512</v>
       </c>
-      <c r="D4" t="n">
-        <v>110.139252766692</v>
-      </c>
-      <c r="E4" t="n">
-        <v>630.5933313734854</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="K4" t="n">
-        <v>244.4501167931514</v>
-      </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>268.4061786070788</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871026</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>259.6353192824735</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>176.887770672257</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>162.5914218068436</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849645</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773849</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>359.7998881467062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>9.362033391100738</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937513</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074792</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>138.5975186702971</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>55.34430664941158</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>127.1934484317756</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304047</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589152</v>
+        <v>27.09972413207885</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>69.48873128684664</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>320.3163936507509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250586</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27991,7 +27991,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>11.39188093250795</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>23.54332530129548</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.068535313726665</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.832667682170723e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.057320897501768e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31041,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31059,28 +31059,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31217,7 +31217,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286704</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511778</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968101</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610698</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062487</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872491</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378882</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635565</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054712</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830802</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656353</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198411</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695374</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644789</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993001</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872829</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554472</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501486</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230884</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876157</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569202</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235234</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
